--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>アーコ</t>
   </si>
@@ -114,7 +114,13 @@
     <t>リリー</t>
   </si>
   <si>
+    <t>Rewrite     -   Lily</t>
+  </si>
+  <si>
     <t>シィナ</t>
+  </si>
+  <si>
+    <t>Sina</t>
   </si>
   <si>
     <t>アーコイベ用</t>
@@ -592,7 +598,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B60"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -600,12 +606,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -613,7 +619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -621,289 +627,295 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -114,13 +114,13 @@
     <t>リリー</t>
   </si>
   <si>
-    <t>Rewrite     -   Lily</t>
+    <t>Lily</t>
   </si>
   <si>
     <t>シィナ</t>
   </si>
   <si>
-    <t>Sina</t>
+    <t>Shina</t>
   </si>
   <si>
     <t>アーコイベ用</t>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>アーコ</t>
   </si>
@@ -136,7 +136,16 @@
 ちゃんと鍵掛けた？</t>
   </si>
   <si>
+    <t xml:space="preserve">\n&lt;リリー&gt;Oh Shina, you're back.
+Did you lock them up?
+</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;は？知らんし。</t>
+  </si>
+  <si>
+    <t>\n&lt;シィナ&gt;Huh, me?
+Beats me.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ちょっと！
@@ -144,8 +153,17 @@
 逃げられたらどうすんのよ！</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;Whoa whoa whoa!
+You need to take this seriously!
+What if they got out!</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;はぁ～～～・・・
 ほんとあんたっていっつも・・・</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;Sigh....
+Why are you always so... so...</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;はぁ？
@@ -153,13 +171,27 @@
 鍵持ってないし。アタシじゃねー！</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;Whaa?
+I dunno-nya.
+I don't have the key. It's not my fault!</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;私も持ってないよ。</t>
   </si>
   <si>
+    <t>\n&lt;ライム&gt;I don't have a key either.</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;ん？</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;Hm?</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;・・・！！</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;...!!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;私が持ってた。
@@ -167,18 +199,37 @@
 鍵、閉めたっけ？</t>
   </si>
   <si>
+    <t>\n&lt;リリー&gt;I have the key.
+...
+Did you at least shut the door?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;知らんし。
 アホにゃ。</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;I dunno.
+Why don't you do it yourself-nya.</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;とりあえず、確認しに戻ろっか。
 リリー。</t>
   </si>
   <si>
+    <t>\n&lt;ライム&gt;Well for now, let's go back and check,
+Lily?</t>
+  </si>
+  <si>
     <t>\n&lt;シィナ&gt;ごめんなさいは～？</t>
   </si>
   <si>
+    <t>\n&lt;シィナ&gt;Now who should be the one apologizing?~</t>
+  </si>
+  <si>
     <t>\n&lt;リリー&gt;えへっ♥</t>
+  </si>
+  <si>
+    <t>\n&lt;リリー&gt;Eei♥</t>
   </si>
   <si>
     <t>最初のイベント</t>
@@ -598,7 +649,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,12 +657,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -619,7 +670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -627,107 +678,107 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -735,7 +786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -743,179 +794,251 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>36</v>
+      </c>
+      <c r="D32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>38</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>40</v>
+      </c>
+      <c r="D34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>44</v>
+      </c>
+      <c r="D36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>46</v>
+      </c>
+      <c r="D37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>48</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>54</v>
+      </c>
+      <c r="D41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
+        <v>56</v>
+      </c>
+      <c r="D42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D45" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>60</v>
+      </c>
+      <c r="D46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>61</v>
+      </c>
+      <c r="D47" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
+        <v>65</v>
+      </c>
+      <c r="D51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>66</v>
+      </c>
+      <c r="D52" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -15,9 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
   <si>
     <t>アーコ</t>
+  </si>
+  <si>
+    <t>Ako</t>
   </si>
   <si>
     <t>MP_SET_MOVIE e8_Ta</t>
@@ -31,8 +34,17 @@
 見てく？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Salutations. Ako here!
+Are you here to buy something?
+Want to look?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;武器になりそうなものとか見つけた？
 まずはそういうの探すといいかもね。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Have you found anything you could use as a weapon?
+If not, you should probably find something like that first.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;何食べたらそんなにおっぱい大きくなるの？
@@ -40,38 +52,77 @@
 錯覚？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;What do you eat to make your boobs so big?
+Is it the stripes that make them look bigger?
+Is it some kind of illusion?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;囚人服に合ってるよ。
 まさに囚人って感じ。
 褒めてないよ。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;That prison outfit suits you.
+I mean, you are a prisoner I guess.
+Don't take it as a compliment.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしは淫魔だし、気持ちが分かるから
 どっちの味方もしないよ。
 でも仲良くしたいって思ってる。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I'm a succubus, and I know how you feel.
+I won't pick sides.
+But I hope we can be friends.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;シィナは猫の時からの友達だよ。
 リリーに淫魔にされたんだってさ。
 あたしは違うやつに淫魔にされたけど。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Shina has been my friend since we were just cats!
+Lily turned her into a succubus, and now she's like that.
+A different person turned me into a succubus though.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;あたしも淫魔だから精液が一番美味しいと思うけど
 カリカリもかつおぶしも同じくらい美味しいと思う。
 一番がいっぱいあるといいね。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;I'm a succubus as well so of course semen is the most delicious
+thing in the world... But I love crisps and katsuobushi as well.
+I can never get enough of them~</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;ここは元々大金持ちが住んでたんだって。
 メイドも使用人もいっぱい居たってさ。
 なんでこんな森の中に？って感じ。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;A very rich person used to live here...
+And lots of maids and servants too. It makes me think-
+What was it doing out in the forest?</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;みんなお金に興味ないから
 あたしがこの館から色々持って行っても何とも思わないんだよ。
 だから、ここで仕入れて町で売ったりする。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Because no one has any interest in gold here,
+they don't care if I take stuff from the mansion.
+So, I just take it to town and sell it.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;その見返りにタバコとか持ってきてあげるの。
 まぁ、それもお金取るけどね。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;I'll give you cigars and stuff for something good.
+...Well, for the right price that is.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;淫魔の巣に閉じ込められるのは
@@ -79,12 +130,25 @@
 少しでもえっちな気分になるとすぐ硬くなっちゃう。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;It must be so difficult being a human 
+locked up in the succubus hideout.
+Even being just a bit aroused will make you hard.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;行き詰ったらとりあえず攻撃してみたらいいよ。
 壊せるものとかあるかもしれないし。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;If things look hopeless, just keep attacking.
+You might just make a break through.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;お兄ちゃんも下に居るの？
 面白そうだから後で行ってみよー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;Your big brother is down there too right?
+How interesting, I'll be sure to give him a visit later-.</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;妹も捕まってるの？
@@ -92,25 +156,49 @@
 仲良くなれるかな？</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;So your sister has been captured as well?
+I'll go and visit her later-.
+I wonder if we would get along well?</t>
+  </si>
+  <si>
     <t>買い物</t>
   </si>
   <si>
+    <t>I'd like to buy something.</t>
+  </si>
+  <si>
     <t>用事はない</t>
   </si>
   <si>
+    <t>I don't need anything right now.</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;何を買ってくれるのかな？</t>
+  </si>
+  <si>
+    <t>\n&lt;Ako&gt;What would you like to buy?</t>
   </si>
   <si>
     <t>\n&lt;アーコ&gt;ははーん。さては冷やかしだな？
 ふーん！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Yeah yeah. Did you come just to stare?
+Hmmph!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;まいどあり～！</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Thank you for stopping by~!</t>
+  </si>
+  <si>
     <t>\n&lt;アーコ&gt;ふーん。</t>
   </si>
   <si>
+    <t>\n&lt;Ako&gt;Hmmph.</t>
+  </si>
+  <si>
     <t>リリー</t>
   </si>
   <si>
@@ -127,6 +215,9 @@
   </si>
   <si>
     <t>ライム</t>
+  </si>
+  <si>
+    <t>Lime</t>
   </si>
   <si>
     <t>自動実行カギ</t>
@@ -136,7 +227,7 @@
 ちゃんと鍵掛けた？</t>
   </si>
   <si>
-    <t xml:space="preserve">\n&lt;リリー&gt;Oh Shina, you're back.
+    <t xml:space="preserve">\n&lt;Lily&gt;Oh Shina, you're back.
 Did you lock them up?
 </t>
   </si>
@@ -144,7 +235,7 @@
     <t>\n&lt;シィナ&gt;は？知らんし。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;Huh, me?
+    <t>\n&lt;Shina&gt;Huh, me?
 Beats me.</t>
   </si>
   <si>
@@ -153,7 +244,7 @@
 逃げられたらどうすんのよ！</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;Whoa whoa whoa!
+    <t>\n&lt;Lily&gt;Whoa whoa whoa!
 You need to take this seriously!
 What if they got out!</t>
   </si>
@@ -162,7 +253,7 @@
 ほんとあんたっていっつも・・・</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;Sigh....
+    <t>\n&lt;Lily&gt;Sigh....
 Why are you always so... so...</t>
   </si>
   <si>
@@ -171,7 +262,7 @@
 鍵持ってないし。アタシじゃねー！</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;Whaa?
+    <t>\n&lt;Shina&gt;Whaa?
 I dunno-nya.
 I don't have the key. It's not my fault!</t>
   </si>
@@ -179,19 +270,19 @@
     <t>\n&lt;ライム&gt;私も持ってないよ。</t>
   </si>
   <si>
-    <t>\n&lt;ライム&gt;I don't have a key either.</t>
+    <t>\n&lt;Lime&gt;I don't have a key either.</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;ん？</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;Hm?</t>
+    <t>\n&lt;Lily&gt;Hm?</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;・・・！！</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;...!!</t>
+    <t>\n&lt;Lily&gt;...!!</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;私が持ってた。
@@ -199,7 +290,7 @@
 鍵、閉めたっけ？</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;I have the key.
+    <t>\n&lt;Lily&gt;I have the key.
 ...
 Did you at least shut the door?</t>
   </si>
@@ -208,7 +299,7 @@
 アホにゃ。</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;I dunno.
+    <t>\n&lt;Shina&gt;I dunno.
 Why don't you do it yourself-nya.</t>
   </si>
   <si>
@@ -216,26 +307,29 @@
 リリー。</t>
   </si>
   <si>
-    <t>\n&lt;ライム&gt;Well for now, let's go back and check,
+    <t>\n&lt;Lime&gt;Well for now, let's go back and check,
 Lily?</t>
   </si>
   <si>
     <t>\n&lt;シィナ&gt;ごめんなさいは～？</t>
   </si>
   <si>
-    <t>\n&lt;シィナ&gt;Now who should be the one apologizing?~</t>
+    <t>\n&lt;Shina&gt;Now who should be the one apologizing?~</t>
   </si>
   <si>
     <t>\n&lt;リリー&gt;えへっ♥</t>
   </si>
   <si>
-    <t>\n&lt;リリー&gt;Eei♥</t>
+    <t>\n&lt;Lily&gt;Eei♥</t>
   </si>
   <si>
     <t>最初のイベント</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;やっぱりね！</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Just as I thought！</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;逃げる時間そんなにないよなー、って思ってたの。
@@ -243,12 +337,26 @@
 待ってたら来ると思ったよー！</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;They couldn't have had much time to escape, I thinks.
+Maybe they're hiding somewhere?
+If we wait, I'm sure they'll come out!~</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
 つーかまーえた♥</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Ehehehehe-♥
+Cau~ght you~♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;ぬるぬるして動きにくいでしょー。
 早く逃げないと白いの出させちゃうぞー？</t>
+  </si>
+  <si>
+    <t>\n&lt;\n[3]&gt;It's hard to move when you're so slimy, right?
+If you don't get away quickly, you're gonna end up
+leaking out white stuff you know?</t>
   </si>
   <si>
     <t>\C[3]※捕まるとタイミングバーが表示されます。
@@ -256,22 +364,45 @@
 赤で止めると被ダメージが半減します。</t>
   </si>
   <si>
+    <t>\C[3]※A timing bar will show if you are caught.
+\C[0]Time your key press to match either the yellow or red areas.
+If you stop in the red area, you will take half damage.</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;むにゅー・・・♥
 柔らかくて溶けちゃいそうでしょー♥
 気持ちいい気持ちいいー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Squeeze---...♥
+They feel so soft you could melt right?♥
+So plush, so pleasureable-♥</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あれー？もう出ちゃうのー？
 おっぱい我慢できなかったー？あはは♥
 じゃあ一回だけ、出しちゃおっかー♪</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Oh-? Are you gonna squirt already?
+Couldn't you resist my boobies? Aha!♥
+Alright then, I'm sure you can squirt just a little-♪</t>
+  </si>
+  <si>
     <t>\n&lt;\n[3]&gt;あっあっ♥おっぱいの間でぴくぴくしてるー♥
 おちんちん喜んでくれたみたい♥
 うれしー♥</t>
   </si>
   <si>
+    <t>\n&lt;\n[3]&gt;Ahaha♥ I can feel it twitching in my cleavage♥
+Your penis seems really happy♥
+I'm happy too♥</t>
+  </si>
+  <si>
     <t>\C[1]SAN値が1下がった・・・（現在SAN値\v[270]）</t>
+  </si>
+  <si>
+    <t>\C[1]Sanity decreased by 1... (Current Sanity: \v[270]）</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;もうー。ひょっとして全然抵抗する気ないのー？
@@ -279,8 +410,17 @@
 次は本気で搾っちゃうからねー？</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Gee~ Were you trying to resist at all?
+And the game only just started too.
+Next time, I'll milk you for real, okay?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;あっ！逃げられちゃった・・・
 まぁいいっかー。</t>
+  </si>
+  <si>
+    <t>\n&lt;Lime&gt;Ack! They got away...
+Oh well...</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;えーっと、リリーの行ってたこと、
@@ -288,26 +428,53 @@
 脱出ゲームがどーのこーの・・・</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;So, um... Did you hear about what
+Lily was going on about?
+About this...escape game and such...</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;この館は広いからねー。
 なかなか出られないと思うけど・・・
 頑張って色んなところ、探してみてね。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;This mansion is really quite huge you know~
+I don't think you'll be able to leave easily...
+But do everything you can, and be sure to search around OK?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;リリーもシィナも楽しそうだから。
 簡単に諦めたりしちゃーダメだよー？
 いっぱい遊ばれてね。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Lili and Shina seem to like the idea.
+So, you'd better not give up so easily, alright?
+Let's play lots and lots OK?</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;次は一回射精したぐらいじゃ
 許してあげないからねー？くすくす♥
 ばいばーい♥</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Next time, I won't let you get away with
+just one ejaculation, okay? Teehee♥
+Bye bye♥</t>
+  </si>
+  <si>
     <t>\n&lt;ライム&gt;じゃー頑張ってねー。
 次は私も本気でぴゅっぴゅさせにいっちゃうからねー。</t>
   </si>
   <si>
+    <t>\n&lt;Lime&gt;Now then- Do your best~
+Next time I'll make you go "pew pew" for reals~</t>
+  </si>
+  <si>
     <t>シィナイベ用</t>
+  </si>
+  <si>
+    <t>Shinaイベ用</t>
   </si>
   <si>
     <t>梯子</t>
@@ -661,384 +828,483 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>16</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="D18" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>47</v>
+      </c>
+      <c r="D25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="D29" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="D30" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D35" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D39" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D40" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="D43" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D44" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="D45" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="D50" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="D51" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>103</v>
+      </c>
+      <c r="D55" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>70</v>
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>107</v>
+      </c>
+      <c r="D57" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>109</v>
+      </c>
+      <c r="D58" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>111</v>
+      </c>
+      <c r="D59" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -468,7 +468,7 @@
   </si>
   <si>
     <t>\n&lt;Lime&gt;Now then- Do your best~
-Next time I'll make you go "pew pew" for reals~</t>
+Next time I'll make you go "pew pew" for reAlsto~</t>
   </si>
   <si>
     <t>シィナイベ用</t>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -468,7 +468,7 @@
   </si>
   <si>
     <t>\n&lt;Lime&gt;Now then- Do your best~
-Next time I'll make you go "pew pew" for reAlsto~</t>
+Next time I'll make you go "pew pew" for realsies~</t>
   </si>
   <si>
     <t>シィナイベ用</t>

--- a/data/Map103.xlsx
+++ b/data/Map103.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="115">
   <si>
     <t>アーコ</t>
   </si>
@@ -340,6 +340,9 @@
     <t>\n&lt;Lime&gt;They couldn't have had much time to escape, I thinks.
 Maybe they're hiding somewhere?
 If we wait, I'm sure they'll come out!~</t>
+  </si>
+  <si>
+    <t>ーーーーー基本変更点ーーーーー</t>
   </si>
   <si>
     <t>\n&lt;ライム&gt;にへへへへー♥
@@ -816,7 +819,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -824,487 +827,489 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="D12" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="D13" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="D14" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="C24" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="D25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
         <v>49</v>
       </c>
-      <c r="D27" t="s">
+      <c r="B27" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
         <v>52</v>
       </c>
-      <c r="D29" t="s">
+      <c r="B29" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="D30" t="s">
+      <c r="B30" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
         <v>56</v>
       </c>
-      <c r="D31" t="s">
+      <c r="B31" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
         <v>58</v>
       </c>
-      <c r="D32" t="s">
+      <c r="B32" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
         <v>60</v>
       </c>
-      <c r="D33" t="s">
+      <c r="B33" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="D34" t="s">
+      <c r="B34" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
         <v>64</v>
       </c>
-      <c r="D35" t="s">
+      <c r="B35" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="D36" t="s">
+      <c r="B36" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
-      <c r="D37" t="s">
+      <c r="B37" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
         <v>70</v>
       </c>
-      <c r="D38" t="s">
+      <c r="B38" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="D39" t="s">
+      <c r="B39" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
         <v>74</v>
       </c>
-      <c r="D40" t="s">
+      <c r="B40" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="D41" t="s">
+      <c r="B41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
         <v>78</v>
       </c>
-      <c r="D42" t="s">
+      <c r="B42" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
         <v>79</v>
       </c>
-      <c r="D43" t="s">
+      <c r="B43" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
         <v>81</v>
       </c>
-      <c r="D44" t="s">
+      <c r="B44" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
         <v>83</v>
       </c>
-      <c r="D45" t="s">
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>85</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>87</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>89</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>91</v>
       </c>
-      <c r="D49" t="s">
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>93</v>
       </c>
-      <c r="D50" t="s">
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>95</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
         <v>97</v>
       </c>
-      <c r="D52" t="s">
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>99</v>
       </c>
-      <c r="D53" t="s">
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
         <v>101</v>
       </c>
-      <c r="D54" t="s">
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" t="s">
+      <c r="B55" t="s">
         <v>103</v>
       </c>
-      <c r="D55" t="s">
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" t="s">
+      <c r="B56" t="s">
         <v>105</v>
       </c>
-      <c r="D56" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>107</v>
       </c>
-      <c r="D57" t="s">
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" t="s">
+      <c r="B58" t="s">
         <v>109</v>
       </c>
-      <c r="D58" t="s">
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" t="s">
+      <c r="B59" t="s">
         <v>111</v>
       </c>
-      <c r="D59" t="s">
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" t="s">
+      <c r="B60" t="s">
         <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
